--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D032 X-Calibur/X-Calibur Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D032 X-Calibur/X-Calibur Progress Assessment - March 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himal\OneDrive\Documents\Work\ECON\Omniyat\Payments\Contractor Payment Cerfificates\KCE\Sub Contractor Payment\D032 X-Calibur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tharaka\F015 - Plot 18\Main Scope\Payments\Mar 2023\Omniyat Concept Investments LLC-Plot 18-2023-04-07-12-08-20-987\06b. Subcontractor Cost &amp; Backup\2. Domestic SC's\D32. X-Calibur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4D76B-54D1-4A78-916E-53868BAC9C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F95847-9274-4375-982A-C80823880F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1C526902-C758-455E-9BC6-467446DD7212}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C526902-C758-455E-9BC6-467446DD7212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,12 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,9 +260,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -588,81 +588,81 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="2"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="8.77734375" style="3"/>
+    <col min="6" max="6" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="3" customWidth="1"/>
     <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -682,10 +682,10 @@
         <f>E3*C3</f>
         <v>2175</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>75</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <f>I3-G3</f>
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -724,10 +724,10 @@
         <f t="shared" ref="F4:F13" si="0">E4*C4</f>
         <v>6032</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>208</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H13" si="1">I4-G4</f>
         <v>0</v>
       </c>
@@ -742,11 +742,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L13" si="3">I4*E4</f>
+        <f t="shared" ref="L4:L12" si="3">I4*E4</f>
         <v>6032</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -766,10 +766,10 @@
         <f t="shared" si="0"/>
         <v>33176</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>1144</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>33176</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -808,10 +808,10 @@
         <f t="shared" si="0"/>
         <v>33176</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>1144</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
         <v>33176</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -850,10 +850,10 @@
         <f t="shared" si="0"/>
         <v>2581</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>89</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -872,7 +872,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -892,10 +892,10 @@
         <f t="shared" si="0"/>
         <v>30044</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>1036</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
         <v>30044</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -934,10 +934,10 @@
         <f t="shared" si="0"/>
         <v>31146</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>1074</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>31146</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -976,10 +976,10 @@
         <f t="shared" si="0"/>
         <v>31146</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>1074</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -998,7 +998,7 @@
         <v>31146</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1018,10 +1018,10 @@
         <f t="shared" si="0"/>
         <v>2320</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>80</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1060,10 +1060,10 @@
         <f t="shared" si="0"/>
         <v>2117</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>73</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1102,67 +1102,76 @@
         <f t="shared" si="0"/>
         <v>47976</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>4761.32</v>
+        <v>2380.66</v>
       </c>
       <c r="I13" s="7">
-        <f>2380.66+1498.5+882.16</f>
-        <v>4761.32</v>
+        <f>2380.66</f>
+        <v>2380.66</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="2"/>
-        <v>25520.675200000001</v>
+        <v>17140.752</v>
       </c>
       <c r="L13" s="8">
-        <f>I13*E13*0.67</f>
-        <v>25520.675200000001</v>
+        <f>I13*E13*90%</f>
+        <v>17140.752</v>
       </c>
       <c r="M13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
+    <row r="14" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <f>SUM(F3:F13)</f>
         <v>221889</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="20">
+      <c r="G14" s="16">
+        <f t="shared" ref="G14:H14" si="4">SUM(G3:G13)</f>
+        <v>5997</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="4"/>
+        <v>2380.66</v>
+      </c>
+      <c r="I14" s="19">
+        <f>SUM(I3:I13)</f>
+        <v>8377.66</v>
+      </c>
+      <c r="J14" s="16">
         <f>SUM(J3:J13)</f>
         <v>173913</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="16">
         <f>SUM(K3:K13)</f>
-        <v>25520.675200000001</v>
-      </c>
-      <c r="L14" s="20">
+        <v>17140.752</v>
+      </c>
+      <c r="L14" s="16">
         <f>SUM(L3:L13)</f>
-        <v>199433.6752</v>
-      </c>
-      <c r="M14" s="21">
+        <v>191053.75200000001</v>
+      </c>
+      <c r="M14" s="20">
         <f>L14/F14</f>
-        <v>0.89879928793225439</v>
-      </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+        <v>0.86103300298798047</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>